--- a/long_first/synthetic_dataset_9.xlsx
+++ b/long_first/synthetic_dataset_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -28,16 +28,25 @@
     <t>Value</t>
   </si>
   <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>not a date</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
     <t>Radio</t>
   </si>
   <si>
-    <t>TV</t>
+    <t>Spend</t>
   </si>
   <si>
     <t>GRPs</t>
   </si>
   <si>
-    <t>Spend</t>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,316 +430,270 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45879</v>
+        <v>45961</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>45907</v>
-      </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45879</v>
+        <v>45982</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45907</v>
+        <v>45961</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45879</v>
+        <v>45975</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>45968</v>
+      </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>45900</v>
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45907</v>
+        <v>45961</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45886</v>
+        <v>45989</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45989</v>
+      </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45893</v>
+        <v>45982</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>138</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45961</v>
+      </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45886</v>
+        <v>45975</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45900</v>
+        <v>45989</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45893</v>
+        <v>45968</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45900</v>
+        <v>45982</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45907</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
+        <v>45968</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45914</v>
+        <v>45975</v>
       </c>
       <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45893</v>
+        <v>45968</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>45907</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <v>45886</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>45893</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>45914</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
